--- a/output/Test.xlsx
+++ b/output/Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Style Selling Report</t>
   </si>
@@ -22,22 +22,34 @@
     <t>Report Generated:</t>
   </si>
   <si>
-    <t>03/28/2019 13:46</t>
+    <t>03/28/2019 14:20</t>
   </si>
   <si>
     <t>Selections:</t>
   </si>
   <si>
-    <t>Season Desc: 2017-2 Fall,2018-1 Spring,2018-2 Fall</t>
-  </si>
-  <si>
-    <t>Brand Subfamily: DR. SCHOLL'S</t>
-  </si>
-  <si>
-    <t>Account: Macy's</t>
-  </si>
-  <si>
-    <t>Store Type: Full Line</t>
+    <t>Season Desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-2 Fall,2018-1 Spring,2018-2 Fall</t>
+  </si>
+  <si>
+    <t>Brand Subfamily</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DR. SCHOLL'S</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macy's</t>
+  </si>
+  <si>
+    <t>Store Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Full Line</t>
   </si>
 </sst>
 </file>
@@ -414,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,13 +440,13 @@
     <col customWidth="1" max="4" min="4" width="18"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="52" r="1" spans="1:2"/>
-    <row customHeight="1" ht="30" r="2" spans="1:2">
+    <row customHeight="1" ht="52" r="1" spans="1:3"/>
+    <row customHeight="1" ht="30" r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -442,27 +454,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
